--- a/specs.xlsx
+++ b/specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rassiniauto-my.sharepoint.com/personal/rsxdiseno_rassini_com/Documents/Escritorio/prin/Proyecto_Dual/Spec-Finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6087" documentId="8_{7FBA0DCB-45AD-4A29-9276-3065C052CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C030DFC-D38C-4E04-A3B2-B7F87D61EFD8}"/>
+  <xr:revisionPtr revIDLastSave="6094" documentId="8_{7FBA0DCB-45AD-4A29-9276-3065C052CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C9E395-3390-4183-B292-D7740C1C874D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{10639416-F5A5-4C1D-AD3D-8C06C6F6861C}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5852" uniqueCount="1579">
   <si>
     <t>CODIGO</t>
   </si>
@@ -4774,6 +4774,12 @@
   </si>
   <si>
     <t>619-E</t>
+  </si>
+  <si>
+    <t>UNIVERSAL</t>
+  </si>
+  <si>
+    <t>NA (TACON)</t>
   </si>
 </sst>
 </file>
@@ -4850,13 +4856,13 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5022,15 +5028,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{41EDAA29-3BF2-4AD9-AE76-50B02FB4DCB3}" name="Tabla4" displayName="Tabla4" ref="A1:F677" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{41EDAA29-3BF2-4AD9-AE76-50B02FB4DCB3}" name="Tabla4" displayName="Tabla4" ref="A1:F677" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F677" xr:uid="{41EDAA29-3BF2-4AD9-AE76-50B02FB4DCB3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D0FE45A7-D28A-4A16-95B9-AB5EDD396AC6}" name="CLIENTE" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{477D1050-6130-44CB-8251-D1838C2123CB}" name="NO. DE PARTE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F706F24C-C65E-40BD-9CAE-E0679A3B1DD5}" name="NO. DE HOJA" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{FD71AEBB-5E35-4DA6-AE0C-7414EC57B012}" name="NO. DE PLANTILLA" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D0FE45A7-D28A-4A16-95B9-AB5EDD396AC6}" name="CLIENTE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{477D1050-6130-44CB-8251-D1838C2123CB}" name="NO. DE PARTE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F706F24C-C65E-40BD-9CAE-E0679A3B1DD5}" name="NO. DE HOJA" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{FD71AEBB-5E35-4DA6-AE0C-7414EC57B012}" name="NO. DE PLANTILLA" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{23102891-78FF-4F8A-A17D-19A64CFA891F}" name="NO. DE MUESTRA" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A80F7C38-4B61-41C9-B31C-C575863D2710}" name="TIPO DE PLANTILLA" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A80F7C38-4B61-41C9-B31C-C575863D2710}" name="TIPO DE PLANTILLA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13775,7 +13781,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16454,7 +16460,7 @@
   <dimension ref="A1:F677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D525" sqref="D525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26818,7 +26824,7 @@
         <v>9</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>1066</v>
+        <v>1577</v>
       </c>
       <c r="E518" t="s">
         <v>1066</v>
@@ -26838,7 +26844,7 @@
         <v>10</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>1066</v>
+        <v>1577</v>
       </c>
       <c r="E519" t="s">
         <v>1066</v>
@@ -26858,7 +26864,7 @@
         <v>11</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>1066</v>
+        <v>1577</v>
       </c>
       <c r="E520" t="s">
         <v>1066</v>
@@ -26878,7 +26884,7 @@
         <v>12</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>1066</v>
+        <v>1577</v>
       </c>
       <c r="E521" t="s">
         <v>1066</v>
@@ -26898,7 +26904,7 @@
         <v>13</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1066</v>
+        <v>1577</v>
       </c>
       <c r="E522" t="s">
         <v>1066</v>
@@ -26918,7 +26924,7 @@
         <v>14</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>1066</v>
+        <v>1577</v>
       </c>
       <c r="E523" t="s">
         <v>1066</v>
@@ -26938,7 +26944,7 @@
         <v>15</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>1066</v>
+        <v>1577</v>
       </c>
       <c r="E524" t="s">
         <v>1066</v>
@@ -26958,7 +26964,7 @@
         <v>16</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>1066</v>
+        <v>1578</v>
       </c>
       <c r="E525" t="s">
         <v>1066</v>

--- a/specs.xlsx
+++ b/specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rassiniauto-my.sharepoint.com/personal/rsxdiseno_rassini_com/Documents/Escritorio/prin/Proyecto_Dual/Spec-Finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6480" documentId="8_{7FBA0DCB-45AD-4A29-9276-3065C052CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0AA4814-C399-4EF7-A795-85ED6B5A4CD7}"/>
+  <xr:revisionPtr revIDLastSave="6570" documentId="8_{7FBA0DCB-45AD-4A29-9276-3065C052CE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAC3903A-1AE4-4766-86FF-38FEEB34ED43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{10639416-F5A5-4C1D-AD3D-8C06C6F6861C}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6099" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="1660">
   <si>
     <t>CODIGO</t>
   </si>
@@ -4809,9 +4809,6 @@
     <t>TRX-016</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>NYLON</t>
   </si>
   <si>
@@ -4930,6 +4927,102 @@
   </si>
   <si>
     <t>55-1219</t>
+  </si>
+  <si>
+    <t>RECICLADA</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CO4828076144X</t>
+  </si>
+  <si>
+    <t>CO4828076145X</t>
+  </si>
+  <si>
+    <t>CO4840076160X</t>
+  </si>
+  <si>
+    <t>CO4806076200X</t>
+  </si>
+  <si>
+    <t>CO483T080160X</t>
+  </si>
+  <si>
+    <t>CO483U080160X</t>
+  </si>
+  <si>
+    <t>CO483V080254X</t>
+  </si>
+  <si>
+    <t>CO484F075350X</t>
+  </si>
+  <si>
+    <t>CO481X767160X</t>
+  </si>
+  <si>
+    <t>CO481Z767160X</t>
+  </si>
+  <si>
+    <t>CO483S080160X</t>
+  </si>
+  <si>
+    <t>CO481Y767160X</t>
+  </si>
+  <si>
+    <t>CO485B762170X</t>
+  </si>
+  <si>
+    <t>CO484M638127X</t>
+  </si>
+  <si>
+    <t>CO4807076160X</t>
+  </si>
+  <si>
+    <t>CO481L076150X</t>
+  </si>
+  <si>
+    <t>CO481N767150X</t>
+  </si>
+  <si>
+    <t>CO481L767160X</t>
+  </si>
+  <si>
+    <t>CO485Q060140X</t>
+  </si>
+  <si>
+    <t>CO484V603085X</t>
+  </si>
+  <si>
+    <t>CO487F628127</t>
+  </si>
+  <si>
+    <t>CO481K076150X</t>
+  </si>
+  <si>
+    <t>CO487N774188X</t>
+  </si>
+  <si>
+    <t>CO489F768152X</t>
+  </si>
+  <si>
+    <t>CO487W762140X</t>
+  </si>
+  <si>
+    <t>CO4807076144X</t>
+  </si>
+  <si>
+    <t>CO4824076143X</t>
+  </si>
+  <si>
+    <t>CO4843076144X</t>
+  </si>
+  <si>
+    <t>CO4841076180X</t>
+  </si>
+  <si>
+    <t>CO4824076144X</t>
   </si>
 </sst>
 </file>
@@ -4986,7 +5079,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -4999,6 +5092,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5162,8 +5256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{32109433-29EE-49B3-95EA-495C2E90A94E}" name="Tabla3" displayName="Tabla3" ref="A1:M98" totalsRowShown="0">
-  <autoFilter ref="A1:M98" xr:uid="{32109433-29EE-49B3-95EA-495C2E90A94E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{32109433-29EE-49B3-95EA-495C2E90A94E}" name="Tabla3" displayName="Tabla3" ref="A1:M129" totalsRowShown="0">
+  <autoFilter ref="A1:M129" xr:uid="{32109433-29EE-49B3-95EA-495C2E90A94E}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{784D8CB2-3F42-4ED1-8118-E92DF2248B62}" name="CLIENTE"/>
     <tableColumn id="10" xr3:uid="{D1D9D4C0-C676-42A3-9DC8-8C13C298F9F8}" name="NO. DE PARTE"/>
@@ -13303,19 +13397,19 @@
         <v>53</v>
       </c>
       <c r="B348" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D348" t="s">
         <v>1592</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1593</v>
       </c>
       <c r="E348" t="s">
         <v>145</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G348" s="1" t="b">
         <v>1</v>
@@ -13326,19 +13420,19 @@
         <v>53</v>
       </c>
       <c r="B349" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D349" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E349" t="s">
         <v>145</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G349" s="1" t="b">
         <v>1</v>
@@ -13349,19 +13443,19 @@
         <v>53</v>
       </c>
       <c r="B350" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D350" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E350" t="s">
         <v>145</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G350" s="1" t="b">
         <v>1</v>
@@ -13372,19 +13466,19 @@
         <v>53</v>
       </c>
       <c r="B351" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D351" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E351" t="s">
         <v>145</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G351" s="1" t="b">
         <v>1</v>
@@ -13395,19 +13489,19 @@
         <v>53</v>
       </c>
       <c r="B352" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D352" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E352" t="s">
         <v>145</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G352" s="1" t="b">
         <v>1</v>
@@ -14056,10 +14150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A55483A-DA79-4EB0-B889-24268F93D92E}">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14112,7 +14206,7 @@
         <v>1004</v>
       </c>
       <c r="K1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -17534,13 +17628,13 @@
         <v>1587</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F83" t="s">
         <v>1588</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F83" t="s">
-        <v>1589</v>
       </c>
       <c r="G83">
         <v>27</v>
@@ -17570,19 +17664,19 @@
         <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C84" t="s">
         <v>1587</v>
       </c>
       <c r="D84" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F84" t="s">
         <v>1588</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1611</v>
-      </c>
-      <c r="F84" t="s">
-        <v>1589</v>
       </c>
       <c r="G84">
         <v>27</v>
@@ -17654,7 +17748,7 @@
         <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C86" t="s">
         <v>932</v>
@@ -17696,7 +17790,7 @@
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C87" t="s">
         <v>932</v>
@@ -17705,10 +17799,10 @@
         <v>1005</v>
       </c>
       <c r="E87" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F87" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G87">
         <v>4</v>
@@ -17738,7 +17832,7 @@
         <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C88" t="s">
         <v>932</v>
@@ -17747,10 +17841,10 @@
         <v>1005</v>
       </c>
       <c r="E88" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F88" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -17780,7 +17874,7 @@
         <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C89" t="s">
         <v>932</v>
@@ -17789,10 +17883,10 @@
         <v>1005</v>
       </c>
       <c r="E89" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F89" t="s">
         <v>1611</v>
-      </c>
-      <c r="F89" t="s">
-        <v>1612</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -17822,7 +17916,7 @@
         <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C90" t="s">
         <v>932</v>
@@ -17831,19 +17925,19 @@
         <v>1005</v>
       </c>
       <c r="E90" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F90" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H90" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>1619</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>1620</v>
       </c>
       <c r="J90">
         <v>1504</v>
@@ -17863,7 +17957,7 @@
         <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C91" t="s">
         <v>932</v>
@@ -17872,19 +17966,19 @@
         <v>1005</v>
       </c>
       <c r="E91" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F91" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G91" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>1619</v>
-      </c>
       <c r="I91" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="J91">
         <v>1540</v>
@@ -17904,7 +17998,7 @@
         <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C92" t="s">
         <v>932</v>
@@ -17913,10 +18007,10 @@
         <v>1005</v>
       </c>
       <c r="E92" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F92" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G92">
         <v>8</v>
@@ -17946,7 +18040,7 @@
         <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C93" t="s">
         <v>932</v>
@@ -17955,10 +18049,10 @@
         <v>1005</v>
       </c>
       <c r="E93" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F93" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G93">
         <v>8</v>
@@ -17988,7 +18082,7 @@
         <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C94" t="s">
         <v>932</v>
@@ -17997,10 +18091,10 @@
         <v>1005</v>
       </c>
       <c r="E94" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F94" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G94">
         <v>6</v>
@@ -18030,7 +18124,7 @@
         <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C95" t="s">
         <v>932</v>
@@ -18039,10 +18133,10 @@
         <v>1005</v>
       </c>
       <c r="E95" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F95" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G95">
         <v>6</v>
@@ -18072,7 +18166,7 @@
         <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C96" t="s">
         <v>932</v>
@@ -18081,10 +18175,10 @@
         <v>1005</v>
       </c>
       <c r="E96" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F96" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G96">
         <v>8</v>
@@ -18114,7 +18208,7 @@
         <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C97" t="s">
         <v>932</v>
@@ -18123,10 +18217,10 @@
         <v>1005</v>
       </c>
       <c r="E97" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F97" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G97">
         <v>8</v>
@@ -18156,7 +18250,7 @@
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C98" t="s">
         <v>932</v>
@@ -18165,10 +18259,10 @@
         <v>1005</v>
       </c>
       <c r="E98" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="F98" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G98">
         <v>8</v>
@@ -18190,6 +18284,1122 @@
         <v>879</v>
       </c>
       <c r="M98" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J99">
+        <v>79</v>
+      </c>
+      <c r="K99">
+        <v>107</v>
+      </c>
+      <c r="L99" t="s">
+        <v>879</v>
+      </c>
+      <c r="M99" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>83</v>
+      </c>
+      <c r="K100">
+        <v>111</v>
+      </c>
+      <c r="L100" t="s">
+        <v>879</v>
+      </c>
+      <c r="M100" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>86</v>
+      </c>
+      <c r="K101">
+        <v>114</v>
+      </c>
+      <c r="L101" t="s">
+        <v>879</v>
+      </c>
+      <c r="M101" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G102">
+        <v>78</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>156</v>
+      </c>
+      <c r="J102">
+        <v>278</v>
+      </c>
+      <c r="K102">
+        <v>306</v>
+      </c>
+      <c r="L102" t="s">
+        <v>879</v>
+      </c>
+      <c r="M102" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G103">
+        <v>84</v>
+      </c>
+      <c r="H103">
+        <v>9</v>
+      </c>
+      <c r="I103" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>756</v>
+      </c>
+      <c r="J103">
+        <v>1856</v>
+      </c>
+      <c r="K103">
+        <v>1884</v>
+      </c>
+      <c r="L103" t="s">
+        <v>879</v>
+      </c>
+      <c r="M103" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G104">
+        <v>84</v>
+      </c>
+      <c r="H104">
+        <v>9</v>
+      </c>
+      <c r="I104" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>756</v>
+      </c>
+      <c r="J104">
+        <v>1936</v>
+      </c>
+      <c r="K104">
+        <v>1964</v>
+      </c>
+      <c r="L104" t="s">
+        <v>879</v>
+      </c>
+      <c r="M104" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G105">
+        <v>48</v>
+      </c>
+      <c r="H105">
+        <v>14</v>
+      </c>
+      <c r="I105" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>672</v>
+      </c>
+      <c r="J105">
+        <v>1848</v>
+      </c>
+      <c r="K105">
+        <v>1876</v>
+      </c>
+      <c r="L105" t="s">
+        <v>879</v>
+      </c>
+      <c r="M105" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G106">
+        <v>39</v>
+      </c>
+      <c r="H106">
+        <v>10</v>
+      </c>
+      <c r="I106" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>390</v>
+      </c>
+      <c r="J106">
+        <v>1348</v>
+      </c>
+      <c r="K106">
+        <v>1376</v>
+      </c>
+      <c r="L106" t="s">
+        <v>879</v>
+      </c>
+      <c r="M106" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G107">
+        <v>91</v>
+      </c>
+      <c r="H107">
+        <v>32</v>
+      </c>
+      <c r="I107" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>2912</v>
+      </c>
+      <c r="J107">
+        <v>1860</v>
+      </c>
+      <c r="K107">
+        <v>1888</v>
+      </c>
+      <c r="L107" t="s">
+        <v>879</v>
+      </c>
+      <c r="M107" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G108">
+        <v>91</v>
+      </c>
+      <c r="H108">
+        <v>17</v>
+      </c>
+      <c r="I108" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>1547</v>
+      </c>
+      <c r="J108">
+        <v>1904</v>
+      </c>
+      <c r="K108">
+        <v>1932</v>
+      </c>
+      <c r="L108" t="s">
+        <v>879</v>
+      </c>
+      <c r="M108" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G109">
+        <v>84</v>
+      </c>
+      <c r="H109">
+        <v>11</v>
+      </c>
+      <c r="I109" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>924</v>
+      </c>
+      <c r="J109">
+        <v>1760</v>
+      </c>
+      <c r="K109">
+        <v>1788</v>
+      </c>
+      <c r="L109" t="s">
+        <v>879</v>
+      </c>
+      <c r="M109" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G110">
+        <v>91</v>
+      </c>
+      <c r="H110">
+        <v>25</v>
+      </c>
+      <c r="I110" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>2275</v>
+      </c>
+      <c r="J110">
+        <v>1886</v>
+      </c>
+      <c r="K110">
+        <v>1914</v>
+      </c>
+      <c r="L110" t="s">
+        <v>879</v>
+      </c>
+      <c r="M110" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G111">
+        <v>91</v>
+      </c>
+      <c r="H111">
+        <v>10</v>
+      </c>
+      <c r="I111" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>910</v>
+      </c>
+      <c r="J111">
+        <v>1850</v>
+      </c>
+      <c r="K111">
+        <v>1878</v>
+      </c>
+      <c r="L111" t="s">
+        <v>879</v>
+      </c>
+      <c r="M111" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G112">
+        <v>135</v>
+      </c>
+      <c r="H112">
+        <v>20</v>
+      </c>
+      <c r="I112" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>2700</v>
+      </c>
+      <c r="J112">
+        <v>1890</v>
+      </c>
+      <c r="K112">
+        <v>1918</v>
+      </c>
+      <c r="L112" t="s">
+        <v>879</v>
+      </c>
+      <c r="M112" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G113">
+        <v>91</v>
+      </c>
+      <c r="H113">
+        <v>16</v>
+      </c>
+      <c r="I113" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>1456</v>
+      </c>
+      <c r="J113">
+        <v>1785</v>
+      </c>
+      <c r="K113">
+        <v>1813</v>
+      </c>
+      <c r="L113" t="s">
+        <v>879</v>
+      </c>
+      <c r="M113" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G114">
+        <v>104</v>
+      </c>
+      <c r="H114">
+        <v>19</v>
+      </c>
+      <c r="I114" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>1976</v>
+      </c>
+      <c r="J114">
+        <v>1800</v>
+      </c>
+      <c r="K114">
+        <v>1828</v>
+      </c>
+      <c r="L114" t="s">
+        <v>879</v>
+      </c>
+      <c r="M114" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G115">
+        <v>104</v>
+      </c>
+      <c r="H115">
+        <v>15</v>
+      </c>
+      <c r="I115" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>1560</v>
+      </c>
+      <c r="J115">
+        <v>1792</v>
+      </c>
+      <c r="K115">
+        <v>1820</v>
+      </c>
+      <c r="L115" t="s">
+        <v>879</v>
+      </c>
+      <c r="M115" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G116">
+        <v>91</v>
+      </c>
+      <c r="H116">
+        <v>19</v>
+      </c>
+      <c r="I116" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>1729</v>
+      </c>
+      <c r="J116">
+        <v>1728</v>
+      </c>
+      <c r="K116">
+        <v>1756</v>
+      </c>
+      <c r="L116" t="s">
+        <v>879</v>
+      </c>
+      <c r="M116" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G117">
+        <v>128</v>
+      </c>
+      <c r="H117">
+        <v>31</v>
+      </c>
+      <c r="I117" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>3968</v>
+      </c>
+      <c r="J117">
+        <v>1880</v>
+      </c>
+      <c r="K117">
+        <v>1908</v>
+      </c>
+      <c r="L117" t="s">
+        <v>879</v>
+      </c>
+      <c r="M117" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G118">
+        <v>210</v>
+      </c>
+      <c r="H118">
+        <v>19</v>
+      </c>
+      <c r="I118" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>3990</v>
+      </c>
+      <c r="J118">
+        <v>1720</v>
+      </c>
+      <c r="K118">
+        <v>1748</v>
+      </c>
+      <c r="L118" t="s">
+        <v>879</v>
+      </c>
+      <c r="M118" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G119">
+        <v>153</v>
+      </c>
+      <c r="H119">
+        <v>13</v>
+      </c>
+      <c r="I119" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>1989</v>
+      </c>
+      <c r="J119">
+        <v>1860</v>
+      </c>
+      <c r="K119">
+        <v>1888</v>
+      </c>
+      <c r="L119" t="s">
+        <v>879</v>
+      </c>
+      <c r="M119" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G120">
+        <v>98</v>
+      </c>
+      <c r="H120">
+        <v>30</v>
+      </c>
+      <c r="I120" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>2940</v>
+      </c>
+      <c r="J120">
+        <v>1770</v>
+      </c>
+      <c r="K120">
+        <v>1798</v>
+      </c>
+      <c r="L120" t="s">
+        <v>879</v>
+      </c>
+      <c r="M120" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G121">
+        <v>84</v>
+      </c>
+      <c r="H121">
+        <v>16</v>
+      </c>
+      <c r="I121" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>1344</v>
+      </c>
+      <c r="J121">
+        <v>1937</v>
+      </c>
+      <c r="K121">
+        <v>1965</v>
+      </c>
+      <c r="L121" t="s">
+        <v>879</v>
+      </c>
+      <c r="M121" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G122">
+        <v>98</v>
+      </c>
+      <c r="H122">
+        <v>28</v>
+      </c>
+      <c r="I122" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>2744</v>
+      </c>
+      <c r="J122">
+        <v>1848</v>
+      </c>
+      <c r="K122">
+        <v>1876</v>
+      </c>
+      <c r="L122" t="s">
+        <v>879</v>
+      </c>
+      <c r="M122" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G123">
+        <v>112</v>
+      </c>
+      <c r="H123">
+        <v>16</v>
+      </c>
+      <c r="I123" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>1792</v>
+      </c>
+      <c r="J123">
+        <v>1868</v>
+      </c>
+      <c r="K123">
+        <v>1896</v>
+      </c>
+      <c r="L123" t="s">
+        <v>879</v>
+      </c>
+      <c r="M123" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G124">
+        <v>100</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J124">
+        <v>103</v>
+      </c>
+      <c r="K124">
+        <v>131</v>
+      </c>
+      <c r="L124" t="s">
+        <v>879</v>
+      </c>
+      <c r="M124" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G125">
+        <v>100</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J125">
+        <v>59</v>
+      </c>
+      <c r="K125">
+        <v>87</v>
+      </c>
+      <c r="L125" t="s">
+        <v>879</v>
+      </c>
+      <c r="M125" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G126">
+        <v>100</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J126">
+        <v>114</v>
+      </c>
+      <c r="K126">
+        <v>142</v>
+      </c>
+      <c r="L126" t="s">
+        <v>879</v>
+      </c>
+      <c r="M126" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G127">
+        <v>100</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J127">
+        <v>107</v>
+      </c>
+      <c r="K127">
+        <v>135</v>
+      </c>
+      <c r="L127" t="s">
+        <v>879</v>
+      </c>
+      <c r="M127" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G128">
+        <v>100</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J128">
+        <v>107</v>
+      </c>
+      <c r="K128">
+        <v>135</v>
+      </c>
+      <c r="L128" t="s">
+        <v>879</v>
+      </c>
+      <c r="M128" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G129">
+        <v>100</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129" s="6">
+        <f>Tabla3[[#This Row],[MxC]]*Tabla3[[#This Row],[CAMAS]]</f>
+        <v>100</v>
+      </c>
+      <c r="J129">
+        <v>92</v>
+      </c>
+      <c r="K129">
+        <v>120</v>
+      </c>
+      <c r="L129" t="s">
+        <v>879</v>
+      </c>
+      <c r="M129" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -18209,8 +19419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A3A86F-25FE-4AD5-A383-9D52AFA58664}">
   <dimension ref="A1:F677"/>
   <sheetViews>
-    <sheetView topLeftCell="A545" workbookViewId="0">
-      <selection activeCell="B577" sqref="B577"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
